--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Ecm1-Itgb4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.77991604301276</v>
+        <v>11.001142</v>
       </c>
       <c r="H2">
-        <v>9.77991604301276</v>
+        <v>33.003426</v>
       </c>
       <c r="I2">
-        <v>0.04455026578088751</v>
+        <v>0.04976752323647229</v>
       </c>
       <c r="J2">
-        <v>0.04455026578088751</v>
+        <v>0.04976752323647229</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>1.12481153612299</v>
+        <v>4.187598666666667</v>
       </c>
       <c r="N2">
-        <v>1.12481153612299</v>
+        <v>12.562796</v>
       </c>
       <c r="O2">
-        <v>0.2309398962150688</v>
+        <v>0.4284941686600627</v>
       </c>
       <c r="P2">
-        <v>0.2309398962150688</v>
+        <v>0.4284941686600626</v>
       </c>
       <c r="Q2">
-        <v>11.00056238749506</v>
+        <v>46.06836757101067</v>
       </c>
       <c r="R2">
-        <v>11.00056238749506</v>
+        <v>414.615308139096</v>
       </c>
       <c r="S2">
-        <v>0.01028843375579189</v>
+        <v>0.02132509349548255</v>
       </c>
       <c r="T2">
-        <v>0.01028843375579189</v>
+        <v>0.02132509349548254</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.77991604301276</v>
+        <v>11.001142</v>
       </c>
       <c r="H3">
-        <v>9.77991604301276</v>
+        <v>33.003426</v>
       </c>
       <c r="I3">
-        <v>0.04455026578088751</v>
+        <v>0.04976752323647229</v>
       </c>
       <c r="J3">
-        <v>0.04455026578088751</v>
+        <v>0.04976752323647229</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.74576974739625</v>
+        <v>1.204585666666667</v>
       </c>
       <c r="N3">
-        <v>3.74576974739625</v>
+        <v>3.613757</v>
       </c>
       <c r="O3">
-        <v>0.7690601037849312</v>
+        <v>0.1232586918910792</v>
       </c>
       <c r="P3">
-        <v>0.7690601037849312</v>
+        <v>0.1232586918910792</v>
       </c>
       <c r="Q3">
-        <v>36.63331364599244</v>
+        <v>13.25181797016467</v>
       </c>
       <c r="R3">
-        <v>36.63331364599244</v>
+        <v>119.266361731482</v>
       </c>
       <c r="S3">
-        <v>0.03426183202509562</v>
+        <v>0.006134279812786463</v>
       </c>
       <c r="T3">
-        <v>0.03426183202509562</v>
+        <v>0.006134279812786462</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>200.658282910956</v>
+        <v>11.001142</v>
       </c>
       <c r="H4">
-        <v>200.658282910956</v>
+        <v>33.003426</v>
       </c>
       <c r="I4">
-        <v>0.9140548646331509</v>
+        <v>0.04976752323647229</v>
       </c>
       <c r="J4">
-        <v>0.9140548646331509</v>
+        <v>0.04976752323647229</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.12481153612299</v>
+        <v>4.380641</v>
       </c>
       <c r="N4">
-        <v>1.12481153612299</v>
+        <v>13.141923</v>
       </c>
       <c r="O4">
-        <v>0.2309398962150688</v>
+        <v>0.4482471394488581</v>
       </c>
       <c r="P4">
-        <v>0.2309398962150688</v>
+        <v>0.4482471394488581</v>
       </c>
       <c r="Q4">
-        <v>225.7027514368739</v>
+        <v>48.19205369202199</v>
       </c>
       <c r="R4">
-        <v>225.7027514368739</v>
+        <v>433.728483228198</v>
       </c>
       <c r="S4">
-        <v>0.2110917355732587</v>
+        <v>0.02230814992820328</v>
       </c>
       <c r="T4">
-        <v>0.2110917355732587</v>
+        <v>0.02230814992820328</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>200.658282910956</v>
+        <v>200.8411913333333</v>
       </c>
       <c r="H5">
-        <v>200.658282910956</v>
+        <v>602.5235739999999</v>
       </c>
       <c r="I5">
-        <v>0.9140548646331509</v>
+        <v>0.9085755512039061</v>
       </c>
       <c r="J5">
-        <v>0.9140548646331509</v>
+        <v>0.9085755512039061</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>3.74576974739625</v>
+        <v>4.187598666666667</v>
       </c>
       <c r="N5">
-        <v>3.74576974739625</v>
+        <v>12.562796</v>
       </c>
       <c r="O5">
-        <v>0.7690601037849312</v>
+        <v>0.4284941686600627</v>
       </c>
       <c r="P5">
-        <v>0.7690601037849312</v>
+        <v>0.4284941686600626</v>
       </c>
       <c r="Q5">
-        <v>751.6197256923368</v>
+        <v>841.0423050392116</v>
       </c>
       <c r="R5">
-        <v>751.6197256923368</v>
+        <v>7569.380745352903</v>
       </c>
       <c r="S5">
-        <v>0.7029631290598922</v>
+        <v>0.389319325477976</v>
       </c>
       <c r="T5">
-        <v>0.7029631290598922</v>
+        <v>0.3893193254779759</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>9.087226351314991</v>
+        <v>200.8411913333333</v>
       </c>
       <c r="H6">
-        <v>9.087226351314991</v>
+        <v>602.5235739999999</v>
       </c>
       <c r="I6">
-        <v>0.04139486958596168</v>
+        <v>0.9085755512039061</v>
       </c>
       <c r="J6">
-        <v>0.04139486958596168</v>
+        <v>0.9085755512039061</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.12481153612299</v>
+        <v>1.204585666666667</v>
       </c>
       <c r="N6">
-        <v>1.12481153612299</v>
+        <v>3.613757</v>
       </c>
       <c r="O6">
-        <v>0.2309398962150688</v>
+        <v>0.1232586918910792</v>
       </c>
       <c r="P6">
-        <v>0.2309398962150688</v>
+        <v>0.1232586918910792</v>
       </c>
       <c r="Q6">
-        <v>10.22141703131993</v>
+        <v>241.9304203563909</v>
       </c>
       <c r="R6">
-        <v>10.22141703131993</v>
+        <v>2177.373783207518</v>
       </c>
       <c r="S6">
-        <v>0.009559726886018298</v>
+        <v>0.1119898339256097</v>
       </c>
       <c r="T6">
-        <v>0.009559726886018298</v>
+        <v>0.1119898339256097</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>9.087226351314991</v>
+        <v>200.8411913333333</v>
       </c>
       <c r="H7">
-        <v>9.087226351314991</v>
+        <v>602.5235739999999</v>
       </c>
       <c r="I7">
-        <v>0.04139486958596168</v>
+        <v>0.9085755512039061</v>
       </c>
       <c r="J7">
-        <v>0.04139486958596168</v>
+        <v>0.9085755512039061</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.74576974739625</v>
+        <v>4.380641</v>
       </c>
       <c r="N7">
-        <v>3.74576974739625</v>
+        <v>13.141923</v>
       </c>
       <c r="O7">
-        <v>0.7690601037849312</v>
+        <v>0.4482471394488581</v>
       </c>
       <c r="P7">
-        <v>0.7690601037849312</v>
+        <v>0.4482471394488581</v>
       </c>
       <c r="Q7">
-        <v>34.0386575544977</v>
+        <v>879.8131572436446</v>
       </c>
       <c r="R7">
-        <v>34.0386575544977</v>
+        <v>7918.318415192802</v>
       </c>
       <c r="S7">
-        <v>0.03183514269994338</v>
+        <v>0.4072663918003204</v>
       </c>
       <c r="T7">
-        <v>0.03183514269994338</v>
+        <v>0.4072663918003204</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>9.208289333333333</v>
+      </c>
+      <c r="H8">
+        <v>27.624868</v>
+      </c>
+      <c r="I8">
+        <v>0.04165692555962159</v>
+      </c>
+      <c r="J8">
+        <v>0.04165692555962159</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>4.187598666666667</v>
+      </c>
+      <c r="N8">
+        <v>12.562796</v>
+      </c>
+      <c r="O8">
+        <v>0.4284941686600627</v>
+      </c>
+      <c r="P8">
+        <v>0.4284941686600626</v>
+      </c>
+      <c r="Q8">
+        <v>38.56062013454756</v>
+      </c>
+      <c r="R8">
+        <v>347.045581210928</v>
+      </c>
+      <c r="S8">
+        <v>0.01784974968660417</v>
+      </c>
+      <c r="T8">
+        <v>0.01784974968660417</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>9.208289333333333</v>
+      </c>
+      <c r="H9">
+        <v>27.624868</v>
+      </c>
+      <c r="I9">
+        <v>0.04165692555962159</v>
+      </c>
+      <c r="J9">
+        <v>0.04165692555962159</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.204585666666667</v>
+      </c>
+      <c r="N9">
+        <v>3.613757</v>
+      </c>
+      <c r="O9">
+        <v>0.1232586918910792</v>
+      </c>
+      <c r="P9">
+        <v>0.1232586918910792</v>
+      </c>
+      <c r="Q9">
+        <v>11.09217334545289</v>
+      </c>
+      <c r="R9">
+        <v>99.829560109076</v>
+      </c>
+      <c r="S9">
+        <v>0.00513457815268302</v>
+      </c>
+      <c r="T9">
+        <v>0.005134578152683019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>9.208289333333333</v>
+      </c>
+      <c r="H10">
+        <v>27.624868</v>
+      </c>
+      <c r="I10">
+        <v>0.04165692555962159</v>
+      </c>
+      <c r="J10">
+        <v>0.04165692555962159</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.380641</v>
+      </c>
+      <c r="N10">
+        <v>13.141923</v>
+      </c>
+      <c r="O10">
+        <v>0.4482471394488581</v>
+      </c>
+      <c r="P10">
+        <v>0.4482471394488581</v>
+      </c>
+      <c r="Q10">
+        <v>40.33820979346267</v>
+      </c>
+      <c r="R10">
+        <v>363.043888141164</v>
+      </c>
+      <c r="S10">
+        <v>0.0186725977203344</v>
+      </c>
+      <c r="T10">
+        <v>0.0186725977203344</v>
       </c>
     </row>
   </sheetData>
